--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H2">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I2">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J2">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N2">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O2">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P2">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q2">
-        <v>8.669449307491556</v>
+        <v>4.945256406825778</v>
       </c>
       <c r="R2">
-        <v>78.02504376742399</v>
+        <v>44.50730766143199</v>
       </c>
       <c r="S2">
-        <v>0.01226409775114974</v>
+        <v>0.006753093482046543</v>
       </c>
       <c r="T2">
-        <v>0.01226409775114974</v>
+        <v>0.006753093482046544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H3">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I3">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J3">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O3">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P3">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q3">
-        <v>0.548268786491111</v>
+        <v>0.3062927387177777</v>
       </c>
       <c r="R3">
-        <v>4.934419078419999</v>
+        <v>2.75663464846</v>
       </c>
       <c r="S3">
-        <v>0.0007755996664771758</v>
+        <v>0.0004182641560462329</v>
       </c>
       <c r="T3">
-        <v>0.0007755996664771756</v>
+        <v>0.0004182641560462329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H4">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I4">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J4">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N4">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O4">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P4">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q4">
-        <v>8.087593579577778</v>
+        <v>7.932692235502222</v>
       </c>
       <c r="R4">
-        <v>72.78834221619999</v>
+        <v>71.39423011952</v>
       </c>
       <c r="S4">
-        <v>0.01144098485538201</v>
+        <v>0.01083264603968968</v>
       </c>
       <c r="T4">
-        <v>0.011440984855382</v>
+        <v>0.01083264603968968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H5">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I5">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J5">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N5">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O5">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P5">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q5">
-        <v>0.4018305390031111</v>
+        <v>0.2237320285713333</v>
       </c>
       <c r="R5">
-        <v>3.616474851027999</v>
+        <v>2.013588257142</v>
       </c>
       <c r="S5">
-        <v>0.0005684431426887541</v>
+        <v>0.0003055217322573403</v>
       </c>
       <c r="T5">
-        <v>0.000568443142688754</v>
+        <v>0.0003055217322573403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H6">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I6">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J6">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N6">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O6">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P6">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q6">
-        <v>10.08675986347467</v>
+        <v>5.468749900545555</v>
       </c>
       <c r="R6">
-        <v>90.78083877127199</v>
+        <v>49.21874910491</v>
       </c>
       <c r="S6">
-        <v>0.01426907345211991</v>
+        <v>0.007467960459510702</v>
       </c>
       <c r="T6">
-        <v>0.01426907345211991</v>
+        <v>0.007467960459510701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.057822</v>
       </c>
       <c r="I7">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J7">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N7">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O7">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P7">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q7">
-        <v>82.99820262710044</v>
+        <v>84.74670293210488</v>
       </c>
       <c r="R7">
-        <v>746.983823643904</v>
+        <v>762.7203263889439</v>
       </c>
       <c r="S7">
-        <v>0.1174120793703579</v>
+        <v>0.1157275498204303</v>
       </c>
       <c r="T7">
-        <v>0.1174120793703579</v>
+        <v>0.1157275498204303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.057822</v>
       </c>
       <c r="I8">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J8">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O8">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P8">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q8">
         <v>5.248928994368888</v>
@@ -948,10 +948,10 @@
         <v>47.24036094931999</v>
       </c>
       <c r="S8">
-        <v>0.007425313418714727</v>
+        <v>0.007167779638417128</v>
       </c>
       <c r="T8">
-        <v>0.007425313418714727</v>
+        <v>0.007167779638417129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.057822</v>
       </c>
       <c r="I9">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J9">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N9">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O9">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P9">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q9">
-        <v>77.42772428502222</v>
+        <v>135.9422964208711</v>
       </c>
       <c r="R9">
-        <v>696.8495185652</v>
+        <v>1223.48066778784</v>
       </c>
       <c r="S9">
-        <v>0.1095318913117145</v>
+        <v>0.1856387132175989</v>
       </c>
       <c r="T9">
-        <v>0.1095318913117145</v>
+        <v>0.1856387132175989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.057822</v>
       </c>
       <c r="I10">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J10">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N10">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O10">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P10">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q10">
-        <v>3.846981661120888</v>
+        <v>3.834088710862666</v>
       </c>
       <c r="R10">
-        <v>34.622834950088</v>
+        <v>34.506798397764</v>
       </c>
       <c r="S10">
-        <v>0.005442071054974323</v>
+        <v>0.005235716280995475</v>
       </c>
       <c r="T10">
-        <v>0.005442071054974323</v>
+        <v>0.005235716280995476</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.057822</v>
       </c>
       <c r="I11">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J11">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N11">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O11">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P11">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q11">
-        <v>96.56702626730132</v>
+        <v>93.71779440835778</v>
       </c>
       <c r="R11">
-        <v>869.103236405712</v>
+        <v>843.46014967522</v>
       </c>
       <c r="S11">
-        <v>0.1366069986310006</v>
+        <v>0.1279782026463397</v>
       </c>
       <c r="T11">
-        <v>0.1366069986310006</v>
+        <v>0.1279782026463397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H12">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I12">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J12">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N12">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O12">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P12">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q12">
-        <v>68.968321522688</v>
+        <v>12.221749118992</v>
       </c>
       <c r="R12">
-        <v>620.7148937041919</v>
+        <v>109.995742070928</v>
       </c>
       <c r="S12">
-        <v>0.09756493254491458</v>
+        <v>0.0166896531797124</v>
       </c>
       <c r="T12">
-        <v>0.09756493254491456</v>
+        <v>0.0166896531797124</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H13">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I13">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J13">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P13">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q13">
-        <v>4.361658579039999</v>
+        <v>0.7569745027599999</v>
       </c>
       <c r="R13">
-        <v>39.25492721135999</v>
+        <v>6.812770524839999</v>
       </c>
       <c r="S13">
-        <v>0.00617015052204797</v>
+        <v>0.001033701624370409</v>
       </c>
       <c r="T13">
-        <v>0.006170150522047969</v>
+        <v>0.001033701624370409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H14">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I14">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J14">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N14">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O14">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P14">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q14">
-        <v>64.33946777440001</v>
+        <v>19.60492366112</v>
       </c>
       <c r="R14">
-        <v>579.0552099696</v>
+        <v>176.44431295008</v>
       </c>
       <c r="S14">
-        <v>0.0910167986518282</v>
+        <v>0.02677189437724413</v>
       </c>
       <c r="T14">
-        <v>0.09101679865182818</v>
+        <v>0.02677189437724413</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H15">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I15">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J15">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N15">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O15">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P15">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q15">
-        <v>3.196694141536</v>
+        <v>0.5529332552519999</v>
       </c>
       <c r="R15">
-        <v>28.77024727382399</v>
+        <v>4.976399297268</v>
       </c>
       <c r="S15">
-        <v>0.004522152220031698</v>
+        <v>0.0007550690307776812</v>
       </c>
       <c r="T15">
-        <v>0.004522152220031697</v>
+        <v>0.0007550690307776813</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H16">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I16">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J16">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N16">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O16">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P16">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q16">
-        <v>80.24349329606399</v>
+        <v>13.51551543146</v>
       </c>
       <c r="R16">
-        <v>722.1914396645759</v>
+        <v>121.63963888314</v>
       </c>
       <c r="S16">
-        <v>0.1135151738907167</v>
+        <v>0.01845638156207893</v>
       </c>
       <c r="T16">
-        <v>0.1135151738907167</v>
+        <v>0.01845638156207893</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H17">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I17">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J17">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N17">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O17">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P17">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q17">
-        <v>40.92997419450311</v>
+        <v>33.18107686730578</v>
       </c>
       <c r="R17">
-        <v>368.369767750528</v>
+        <v>298.629691805752</v>
       </c>
       <c r="S17">
-        <v>0.05790093311228596</v>
+        <v>0.04531108106156127</v>
       </c>
       <c r="T17">
-        <v>0.05790093311228596</v>
+        <v>0.04531108106156127</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H18">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I18">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J18">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O18">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P18">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q18">
-        <v>2.588472057082222</v>
+        <v>2.055125573117778</v>
       </c>
       <c r="R18">
-        <v>23.29624851374</v>
+        <v>18.49613015806</v>
       </c>
       <c r="S18">
-        <v>0.00366174057984789</v>
+        <v>0.002806417700294135</v>
       </c>
       <c r="T18">
-        <v>0.00366174057984789</v>
+        <v>0.002806417700294135</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H19">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I19">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J19">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N19">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O19">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P19">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q19">
-        <v>38.18293236015555</v>
+        <v>53.22580856830223</v>
       </c>
       <c r="R19">
-        <v>343.6463912414</v>
+        <v>479.03227711472</v>
       </c>
       <c r="S19">
-        <v>0.05401487433415534</v>
+        <v>0.07268356407630089</v>
       </c>
       <c r="T19">
-        <v>0.05401487433415534</v>
+        <v>0.07268356407630087</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H20">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I20">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J20">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N20">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O20">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P20">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q20">
-        <v>1.897111685946222</v>
+        <v>1.501169813451333</v>
       </c>
       <c r="R20">
-        <v>17.074005173516</v>
+        <v>13.510528321062</v>
       </c>
       <c r="S20">
-        <v>0.0026837186926265</v>
+        <v>0.002049952368227198</v>
       </c>
       <c r="T20">
-        <v>0.0026837186926265</v>
+        <v>0.002049952368227198</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H21">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I21">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J21">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N21">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O21">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P21">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q21">
-        <v>47.62134321050932</v>
+        <v>36.69354951294556</v>
       </c>
       <c r="R21">
-        <v>428.592088894584</v>
+        <v>330.24194561651</v>
       </c>
       <c r="S21">
-        <v>0.06736677122848569</v>
+        <v>0.05010760811249371</v>
       </c>
       <c r="T21">
-        <v>0.06736677122848571</v>
+        <v>0.0501076081124937</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H22">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I22">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J22">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.22961066666667</v>
+        <v>50.26671733333333</v>
       </c>
       <c r="N22">
-        <v>147.688832</v>
+        <v>150.800152</v>
       </c>
       <c r="O22">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727233</v>
       </c>
       <c r="P22">
-        <v>0.31191911390397</v>
+        <v>0.2619764206727234</v>
       </c>
       <c r="Q22">
-        <v>18.92862120263111</v>
+        <v>56.74923048964711</v>
       </c>
       <c r="R22">
-        <v>170.35759082368</v>
+        <v>510.743074406824</v>
       </c>
       <c r="S22">
-        <v>0.02677707112526185</v>
+        <v>0.07749504312897283</v>
       </c>
       <c r="T22">
-        <v>0.02677707112526185</v>
+        <v>0.07749504312897286</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H23">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I23">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J23">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.340059999999999</v>
       </c>
       <c r="O23">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727</v>
       </c>
       <c r="P23">
-        <v>0.01972622573797533</v>
+        <v>0.01622594841727001</v>
       </c>
       <c r="Q23">
-        <v>1.197073978822222</v>
+        <v>3.514858643691111</v>
       </c>
       <c r="R23">
-        <v>10.7736658094</v>
+        <v>31.63372779322</v>
       </c>
       <c r="S23">
-        <v>0.001693421550887566</v>
+        <v>0.0047997852981421</v>
       </c>
       <c r="T23">
-        <v>0.001693421550887566</v>
+        <v>0.004799785298142101</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H24">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I24">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J24">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.92553333333333</v>
+        <v>80.63290666666667</v>
       </c>
       <c r="N24">
-        <v>137.7766</v>
+        <v>241.89872</v>
       </c>
       <c r="O24">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="P24">
-        <v>0.2909844597369537</v>
+        <v>0.4202367172077739</v>
       </c>
       <c r="Q24">
-        <v>17.65821448155555</v>
+        <v>91.0315144538489</v>
       </c>
       <c r="R24">
-        <v>158.923930334</v>
+        <v>819.2836300846401</v>
       </c>
       <c r="S24">
-        <v>0.02497991058387376</v>
+        <v>0.1243098994969404</v>
       </c>
       <c r="T24">
-        <v>0.02497991058387375</v>
+        <v>0.1243098994969404</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H25">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I25">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J25">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.281801333333333</v>
+        <v>2.274154</v>
       </c>
       <c r="N25">
-        <v>6.845403999999999</v>
+        <v>6.822462</v>
       </c>
       <c r="O25">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="P25">
-        <v>0.01445750718642485</v>
+        <v>0.01185227038057408</v>
       </c>
       <c r="Q25">
-        <v>0.8773450066622221</v>
+        <v>2.567434206199333</v>
       </c>
       <c r="R25">
-        <v>7.896105059959998</v>
+        <v>23.106907855794</v>
       </c>
       <c r="S25">
-        <v>0.001241122076103574</v>
+        <v>0.003506010968316387</v>
       </c>
       <c r="T25">
-        <v>0.001241122076103574</v>
+        <v>0.003506010968316387</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H26">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I26">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J26">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.277832</v>
+        <v>55.58783666666667</v>
       </c>
       <c r="N26">
-        <v>171.833496</v>
+        <v>166.76351</v>
       </c>
       <c r="O26">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="P26">
-        <v>0.3629126934346761</v>
+        <v>0.2897086433216586</v>
       </c>
       <c r="Q26">
-        <v>22.02313547789333</v>
+        <v>62.75657378815222</v>
       </c>
       <c r="R26">
-        <v>198.20821930104</v>
+        <v>564.80916409337</v>
       </c>
       <c r="S26">
-        <v>0.03115467623235315</v>
+        <v>0.08569849054123563</v>
       </c>
       <c r="T26">
-        <v>0.03115467623235315</v>
+        <v>0.08569849054123563</v>
       </c>
     </row>
   </sheetData>
